--- a/Hardware-Designing/Documents/Tyler_BOM_LSCS separate.xlsx
+++ b/Hardware-Designing/Documents/Tyler_BOM_LSCS separate.xlsx
@@ -1,29 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eSpark\Tyler-Library\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eSpark Group\Desktop\Tyler\Deliverable\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580DD26F-FD01-452D-9A08-756D1EFCD0FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>S. No.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>LCSC Part Number</t>
   </si>
@@ -122,16 +118,13 @@
   </si>
   <si>
     <t>C237600</t>
-  </si>
-  <si>
-    <t>Bill of Material (BOM) for  Task Tyler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,13 +141,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -162,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,17 +163,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -237,39 +217,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -302,21 +249,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -325,58 +257,6 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -384,21 +264,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -407,14 +278,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -422,28 +287,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -545,23 +401,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -597,23 +436,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -789,397 +611,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B3" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B20" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <v>24</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
-        <v>26</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="7">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <v>27</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="7">
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
-        <v>31</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
-        <v>32</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
-      <c r="B34"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="1">
-        <f ca="1">D34:J39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35"/>
-      <c r="C35" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
